--- a/W9/Excel/SWP391-OnlineShopping_Product Backlog.xlsx
+++ b/W9/Excel/SWP391-OnlineShopping_Product Backlog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RoC" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Iteration 4" sheetId="10" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BackLog!$A$8:$F$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BackLog!$A$8:$F$60</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Iteration 1'!$A$8:$F$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Iteration 2'!$A$8:$F$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Iteration 3'!$A$8:$F$18</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="176">
   <si>
     <t>THE APPLICATION DEVELOPMENT PROJECT TOPIC</t>
   </si>
@@ -95,12 +95,6 @@
     <t>This is a pop-up screen which allows the user to change his/her password by inputting his current password as well as new password (twice)</t>
   </si>
   <si>
-    <t>Blogs List</t>
-  </si>
-  <si>
-    <t>Public</t>
-  </si>
-  <si>
     <t>Show the posts paginatedly (sorted by updated date) + the right sider with the post search box, post categories, five featured posts (thumbnail, title); Post information includes its thumbnail, title, category, post date, brief-info; the user is redirected to the Blog Details page on his/her clicking on a post, redirected to this Blogs List page if the user clicks on a post category</t>
   </si>
   <si>
@@ -215,30 +209,15 @@
     <t>Account information</t>
   </si>
   <si>
-    <t>Product list</t>
-  </si>
-  <si>
     <t>Add product</t>
   </si>
   <si>
     <t>Edit product</t>
   </si>
   <si>
-    <t>Add category</t>
-  </si>
-  <si>
-    <t>Edit category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product status update </t>
-  </si>
-  <si>
     <t>Update order status</t>
   </si>
   <si>
-    <t>View product detail</t>
-  </si>
-  <si>
     <t>View shopping cart</t>
   </si>
   <si>
@@ -246,21 +225,6 @@
   </si>
   <si>
     <t>View order</t>
-  </si>
-  <si>
-    <t>Feedback</t>
-  </si>
-  <si>
-    <t>View feedback</t>
-  </si>
-  <si>
-    <t>Check bill</t>
-  </si>
-  <si>
-    <t>Supporting</t>
-  </si>
-  <si>
-    <t>List Voucher</t>
   </si>
   <si>
     <t>Show detailed user information (registered information+ avatar + role + status), from that allow the user to add new, view or edit the user information.</t>
@@ -275,21 +239,6 @@
     <t>Display admin panel including: Detailed statistics, user account management, product information, revenue, order status,…</t>
   </si>
   <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>Report page</t>
-  </si>
-  <si>
-    <t>Certificate</t>
-  </si>
-  <si>
-    <t>Browsing hisory</t>
-  </si>
-  <si>
-    <t>Delivery method</t>
-  </si>
-  <si>
     <t>This is a pop-up screen that allows users to register into the system by entering the following information: full name, email, phone number, address. The user then needs to verify by clicking on the link emailed to him/her before being able to access the system.</t>
   </si>
   <si>
@@ -302,48 +251,18 @@
     <t>This is a screen that allows the user to add a new pickup address to make it easier for the carrier to deliver the item to the user.</t>
   </si>
   <si>
-    <t>This is a pop-up screen that allows admins, product owners to see a list of store products.</t>
-  </si>
-  <si>
     <t>This is a pop-up screen that allows product owners to add one or more of their products.</t>
   </si>
   <si>
     <t>This is a pop-up screen that allows the product owner to change the product's information.</t>
   </si>
   <si>
-    <t>This is a pop-up screen that allows the product owner to add a new product category. The place contains many different types of products but the same category.</t>
-  </si>
-  <si>
-    <t>Category list</t>
-  </si>
-  <si>
-    <t>This is a pop-up screen that allows admins, product owners to see a list of the store's product categories.</t>
-  </si>
-  <si>
-    <t>This is a pop-up screen that allows the product owner to edit the product category name.</t>
-  </si>
-  <si>
-    <t>Search (For user)</t>
-  </si>
-  <si>
-    <t>Search (For admin, seller)</t>
-  </si>
-  <si>
     <t>User can search by product name or filter product by some product filter on the page</t>
   </si>
   <si>
-    <t>Admins and sellers can search for products in the dashboard by name or filter products using several product filters.</t>
-  </si>
-  <si>
     <t>This is the screen that shows the status of the user's order (this order is currently shipped or in a shipping status).</t>
   </si>
   <si>
-    <t>This is the screen showing the status of the product (this product is out of stock or in stock).</t>
-  </si>
-  <si>
-    <t>This is the screen that displays the details of the product when the user clicks on the product on the home page</t>
-  </si>
-  <si>
     <t>When the user clicks on the Cart icon on the homepage, the system will redirect the user to the page containing the products the user wants to buy but has not yet paid for.</t>
   </si>
   <si>
@@ -356,48 +275,12 @@
     <t>This is the screen that will appear after the user presses the Cancel Order / Request Refund button. The user will have to enter the reason for returning the product and click the Submit button.</t>
   </si>
   <si>
-    <t>This is the screen that will appear after the user presses the Feedback button. The system will redirect the user to the feedback page for the user to give their opinion about the product.</t>
-  </si>
-  <si>
-    <t>This is the screen that will appear when the user clicks on the View all comment button to see the feedback and reviews of other shoppers.</t>
-  </si>
-  <si>
-    <t>This is the screen that will appear when the user clicks the Request Support button to get support from the Admin.</t>
-  </si>
-  <si>
-    <t>This is the screen that appears when the user wants to see the list of his discount codes received from the seller.</t>
-  </si>
-  <si>
-    <t>This is the screen that will appear when the user wants to see the store's certificate for verification.</t>
-  </si>
-  <si>
-    <t>This is the screen that will appear when the user wants to report to the Admin about a seller that the user feels is not reputable or sells banned or unauthorized products.</t>
-  </si>
-  <si>
-    <t>This is the screen that will appear when the user wants to select the shipping methods that the user wants.</t>
-  </si>
-  <si>
-    <t>Chat</t>
-  </si>
-  <si>
-    <t>This is the screen that will appear when the user wants to talk directly with the seller to easily order the product, view the detailed information of the product.</t>
-  </si>
-  <si>
-    <t>This is a screen viewer click to see their bill when they checkout successfully</t>
-  </si>
-  <si>
-    <t>This is a screen user click to find information about their location or their telecom to contact with the website developer</t>
-  </si>
-  <si>
     <t>Seller dashboard</t>
   </si>
   <si>
     <t>Show statistics of posts, products, customers, revenue, feedbacks &amp; the trend of new customers by day for the last 7 days (the start date &amp; end date can be adjustable)</t>
   </si>
   <si>
-    <t>This screen helps users review what they have clicked on to view</t>
-  </si>
-  <si>
     <t>Home page</t>
   </si>
   <si>
@@ -422,12 +305,6 @@
     <t>MinhTCHE161354</t>
   </si>
   <si>
-    <t>Feedback detail</t>
-  </si>
-  <si>
-    <t>Show the feedback details (contact full name, email, mobile, product, rated star, feedback, images status) from that allow the user to change its status</t>
-  </si>
-  <si>
     <t>Cancel order (For user)</t>
   </si>
   <si>
@@ -443,9 +320,6 @@
     <t>Blog list</t>
   </si>
   <si>
-    <t>Add to cart</t>
-  </si>
-  <si>
     <t>View cart</t>
   </si>
   <si>
@@ -467,21 +341,6 @@
     <t>Seller</t>
   </si>
   <si>
-    <t>Service Support</t>
-  </si>
-  <si>
-    <t>List Service</t>
-  </si>
-  <si>
-    <t>Service Content</t>
-  </si>
-  <si>
-    <t>Display a list of support services available to users</t>
-  </si>
-  <si>
-    <t>Display all content, instructions of Admin to support users</t>
-  </si>
-  <si>
     <t>Search Service</t>
   </si>
   <si>
@@ -564,6 +423,153 @@
   </si>
   <si>
     <t>Comment Blog</t>
+  </si>
+  <si>
+    <t>Notification</t>
+  </si>
+  <si>
+    <t>Show Products</t>
+  </si>
+  <si>
+    <t>This is a screen showing all products, product categories</t>
+  </si>
+  <si>
+    <t>Product Detail</t>
+  </si>
+  <si>
+    <t>This is a screen showing detailed information of the product</t>
+  </si>
+  <si>
+    <t>This is a screen that allows users to update their personal information</t>
+  </si>
+  <si>
+    <t>Add Address</t>
+  </si>
+  <si>
+    <t>Edit Address</t>
+  </si>
+  <si>
+    <t>This is a screen that allows users to edit their shipping address</t>
+  </si>
+  <si>
+    <t>Delete Product</t>
+  </si>
+  <si>
+    <t>Allows the seller to remove 1 product from the list</t>
+  </si>
+  <si>
+    <t>Delete Address</t>
+  </si>
+  <si>
+    <t>Allows users to delete a shipping address</t>
+  </si>
+  <si>
+    <t>Comment Blogs</t>
+  </si>
+  <si>
+    <t>Allow users to comment on Blogs</t>
+  </si>
+  <si>
+    <t>The screen allows users to view their order details</t>
+  </si>
+  <si>
+    <t>Allows users to search for Blog on the website by title, content or author of that Blog</t>
+  </si>
+  <si>
+    <t>Allows users to report to the Admin about a shop if they see signs of illegal sales of banned products, debauchery, or fake products of poor quality, of unknown origin, .. .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">View Shop </t>
+  </si>
+  <si>
+    <t>The screen displays the information of a certain shop, the products that that shop sells</t>
+  </si>
+  <si>
+    <t>View Service</t>
+  </si>
+  <si>
+    <t>The screen displays support services for users</t>
+  </si>
+  <si>
+    <t>Allows users to quickly search for support services by content</t>
+  </si>
+  <si>
+    <t>List of Shop</t>
+  </si>
+  <si>
+    <t>Allows Admin to see the list of registered shops, total number of products of the shop, shop owner, number of shops available on the website.</t>
+  </si>
+  <si>
+    <t>Shop Detail</t>
+  </si>
+  <si>
+    <t>See detailed information of a shop on the website</t>
+  </si>
+  <si>
+    <t>Allows Admin to see a list of user reports about detecting a certain shop selling fake, poor quality, unknown products, ...</t>
+  </si>
+  <si>
+    <t>Search Account</t>
+  </si>
+  <si>
+    <t>Allow Admin to quickly search for an account in the system</t>
+  </si>
+  <si>
+    <t>Allows Admin to quickly search for a store in the system</t>
+  </si>
+  <si>
+    <t>Allow users to add a product to their favorites list</t>
+  </si>
+  <si>
+    <t>Allows users to directly message the seller</t>
+  </si>
+  <si>
+    <t>Every time the seller updates the order status successfully, the system will send the message "Your order has been accepted" to the user</t>
+  </si>
+  <si>
+    <t>Delete order</t>
+  </si>
+  <si>
+    <t>After the user cancels the order, the seller can remove the order from the list</t>
+  </si>
+  <si>
+    <t>Add Blog</t>
+  </si>
+  <si>
+    <t>Edit Blog</t>
+  </si>
+  <si>
+    <t>Delete Blog</t>
+  </si>
+  <si>
+    <t>Allows the seller to create a new Blog post to post on the website</t>
+  </si>
+  <si>
+    <t>Allows the seller to edit the content and title of the Blog</t>
+  </si>
+  <si>
+    <t>Allows sellers to remove a Blog from their listings</t>
+  </si>
+  <si>
+    <t>List Feedback</t>
+  </si>
+  <si>
+    <t>The screen displays a list of user reviews about each product purchased from the shop</t>
+  </si>
+  <si>
+    <t>Reply Feedback</t>
+  </si>
+  <si>
+    <t>The display screen allows the seller to reply back to the customer's review</t>
+  </si>
+  <si>
+    <t>Add Feedback</t>
+  </si>
+  <si>
+    <t>The screen allows the user to submit a review of the product after the goods have been received successfully</t>
+  </si>
+  <si>
+    <t>The screen allows users to review the list of products that have been viewed once</t>
   </si>
 </sst>
 </file>
@@ -736,7 +742,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -785,6 +791,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -792,7 +811,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -964,6 +983,12 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1699,7 +1724,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
@@ -1711,13 +1736,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -1795,17 +1820,17 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
     <col min="3" max="3" width="10.109375" customWidth="1"/>
     <col min="4" max="4" width="9.109375" customWidth="1"/>
     <col min="5" max="5" width="96.6640625" customWidth="1"/>
@@ -1832,7 +1857,7 @@
     </row>
     <row r="6" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D6" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E6" s="16"/>
     </row>
@@ -1857,10 +1882,10 @@
         <v>8</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <f>ROW()-8</f>
         <v>1</v>
@@ -1869,23 +1894,23 @@
         <v>9</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
-        <f t="shared" ref="A10:A17" si="0">ROW()-8</f>
+        <f t="shared" ref="A10:A18" si="0">ROW()-8</f>
         <v>2</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>10</v>
@@ -1894,17 +1919,17 @@
         <v>1</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>10</v>
@@ -1913,7 +1938,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="F11" s="8"/>
     </row>
@@ -1922,7 +1947,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>10</v>
@@ -1931,30 +1956,30 @@
         <v>1</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:6" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1997,7 +2022,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>10</v>
@@ -2006,740 +2031,866 @@
         <v>1</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
+        <v>9</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12"/>
+      <c r="B19" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12">
+        <v>11</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="9" t="s">
+      <c r="C20" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12">
-        <v>10</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="6" t="s">
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12">
+        <v>12</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12">
-        <v>11</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="6" t="s">
+      <c r="E21" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="12">
+        <v>13</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="12">
+        <v>14</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:6" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="12">
+        <v>15</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="12">
+        <v>16</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="12">
+        <v>17</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="12">
+        <v>18</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="12">
+        <v>19</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12">
-        <v>12</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="6" t="s">
+      <c r="E28" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="1:6" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="12">
+        <v>20</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="F29" s="8"/>
+    </row>
+    <row r="30" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="12">
+        <v>21</v>
+      </c>
+      <c r="B30" s="71" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="72" t="s">
+        <v>149</v>
+      </c>
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="12">
+        <v>22</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="12">
+        <v>23</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="12">
-        <v>13</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="9" t="s">
+      <c r="E32" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="1:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12">
-        <v>14</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="1:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="12">
-        <v>15</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" spans="1:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12">
-        <v>16</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F24" s="8"/>
-    </row>
-    <row r="25" spans="1:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="12">
-        <v>17</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F25" s="8"/>
-    </row>
-    <row r="26" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="12">
-        <v>18</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F26" s="8"/>
-    </row>
-    <row r="27" spans="1:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12">
-        <v>19</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F27" s="8"/>
-    </row>
-    <row r="28" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="12">
-        <v>20</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="F28" s="8"/>
-    </row>
-    <row r="29" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="12">
-        <v>21</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F29" s="8"/>
-    </row>
-    <row r="30" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="12">
-        <v>22</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="F30" s="8"/>
-    </row>
-    <row r="31" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="12">
-        <v>23</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F31" s="8"/>
-    </row>
-    <row r="32" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="12">
-        <v>24</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>99</v>
       </c>
       <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
+        <v>24</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F33" s="8"/>
+    </row>
+    <row r="34" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="12">
         <v>25</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="F33" s="8"/>
-    </row>
-    <row r="34" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="12">
+      <c r="B34" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" spans="1:6" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="12">
         <v>26</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="6" t="s">
+      <c r="B35" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="F35" s="8"/>
+    </row>
+    <row r="36" spans="1:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="12">
+        <v>27</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F36" s="8"/>
+    </row>
+    <row r="37" spans="1:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="12">
+        <v>28</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="12">
+        <v>29</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F34" s="8"/>
-    </row>
-    <row r="35" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="12">
-        <v>27</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F35" s="8"/>
-    </row>
-    <row r="36" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="12">
-        <v>28</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F36" s="8"/>
-    </row>
-    <row r="37" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="12">
-        <v>29</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="F37" s="8"/>
-    </row>
-    <row r="38" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="12">
+      <c r="E38" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="F38" s="8"/>
+    </row>
+    <row r="39" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="12">
         <v>30</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F38" s="8"/>
-    </row>
-    <row r="39" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="12">
+      <c r="B39" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="F39" s="8"/>
+    </row>
+    <row r="40" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="12">
         <v>31</v>
       </c>
-      <c r="B39" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="6" t="s">
+      <c r="B40" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E39" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F39" s="8"/>
-    </row>
-    <row r="40" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="12">
+      <c r="E40" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F40" s="8"/>
+    </row>
+    <row r="41" spans="1:6" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="12">
         <v>32</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F40" s="8"/>
-    </row>
-    <row r="41" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="12">
-        <v>33</v>
-      </c>
       <c r="B41" s="9" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="F41" s="8"/>
     </row>
-    <row r="42" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12">
+        <v>33</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F42" s="8"/>
+    </row>
+    <row r="43" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="12">
+        <v>33</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="F43" s="8"/>
+    </row>
+    <row r="44" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="12">
         <v>34</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F42" s="8"/>
-    </row>
-    <row r="43" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="12">
+      <c r="B44" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F44" s="8"/>
+    </row>
+    <row r="45" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="12">
         <v>35</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="6" t="s">
+      <c r="B45" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="F45" s="8"/>
+    </row>
+    <row r="46" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="12">
+        <v>36</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F46" s="8"/>
+    </row>
+    <row r="47" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="12">
+        <v>37</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="F47" s="8"/>
+    </row>
+    <row r="48" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="12">
+        <v>38</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E43" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F43" s="8"/>
-    </row>
-    <row r="44" spans="1:6" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="12">
+      <c r="E48" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F48" s="8"/>
+    </row>
+    <row r="49" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="12">
+        <v>39</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F49" s="8"/>
+    </row>
+    <row r="50" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="12">
+        <v>40</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="F50" s="8"/>
+    </row>
+    <row r="51" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="12">
+        <v>41</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F51" s="8"/>
+    </row>
+    <row r="52" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="12">
+        <v>42</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F52" s="8"/>
+    </row>
+    <row r="53" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="12">
+        <v>43</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F53" s="8"/>
+    </row>
+    <row r="54" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="12">
+        <v>44</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="F54" s="8"/>
+    </row>
+    <row r="55" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="12">
+        <v>45</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F55" s="8"/>
+    </row>
+    <row r="56" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="12">
+        <v>46</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F56" s="8"/>
+    </row>
+    <row r="57" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="12">
+        <v>47</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="F57" s="8"/>
+    </row>
+    <row r="58" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="12">
+        <v>48</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="F58" s="8"/>
+    </row>
+    <row r="59" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="12">
+        <v>49</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="F59" s="8"/>
+    </row>
+    <row r="60" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="12">
+        <v>50</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="F60" s="8"/>
+    </row>
+    <row r="61" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+    </row>
+    <row r="62" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D62" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B63" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F44" s="8"/>
-    </row>
-    <row r="45" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="12">
+      <c r="C63" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="F45" s="8"/>
-    </row>
-    <row r="46" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="12">
+      <c r="D63" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B46" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="F46" s="8"/>
-    </row>
-    <row r="47" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="12">
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B64" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F47" s="8"/>
-    </row>
-    <row r="48" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="12">
+      <c r="C64" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="F48" s="8"/>
-    </row>
-    <row r="49" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="12">
+      <c r="D64" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B49" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E49" s="9"/>
-      <c r="F49" s="8"/>
-    </row>
-    <row r="50" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A50" s="12">
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B65" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="F50" s="8"/>
-    </row>
-    <row r="51" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="12">
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B66" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B51" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="F51" s="8"/>
-    </row>
-    <row r="52" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="12">
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B67" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B52" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F52" s="8"/>
-    </row>
-    <row r="53" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="12">
-        <v>45</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F53" s="8"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B54" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B55" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C55" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D55" s="22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B56" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C56" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D56" s="22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B57" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C57" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D57" s="22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B58" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B59" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B60" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F47"/>
+  <autoFilter ref="A8:F60"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D53">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D29 D31:D34 D36:D60">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2758,7 +2909,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2793,7 +2944,7 @@
     </row>
     <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F6" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -2814,16 +2965,16 @@
         <v>7</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -2831,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="C9" s="40" t="s">
         <v>10</v>
@@ -2843,10 +2994,10 @@
         <v>120</v>
       </c>
       <c r="F9" s="45" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="G9" s="45" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -2855,7 +3006,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C10" s="41" t="s">
         <v>10</v>
@@ -2867,10 +3018,10 @@
         <v>60</v>
       </c>
       <c r="F10" s="46" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="G10" s="47" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="H10" s="29"/>
     </row>
@@ -2880,7 +3031,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>10</v>
@@ -2892,10 +3043,10 @@
         <v>60</v>
       </c>
       <c r="F11" s="48" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="G11" s="49" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="H11" s="15"/>
     </row>
@@ -2905,7 +3056,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>10</v>
@@ -2917,10 +3068,10 @@
         <v>60</v>
       </c>
       <c r="F12" s="48" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="G12" s="49" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="H12" s="15"/>
     </row>
@@ -2929,23 +3080,23 @@
         <v>5</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" s="54">
         <f t="shared" ref="E13" si="1">IF(D13="Complex", 240, IF(D13="Medium",120,60))</f>
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F13" s="48" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="G13" s="49" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="H13" s="15"/>
     </row>
@@ -2954,10 +3105,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D14" s="44" t="s">
         <v>2</v>
@@ -2966,10 +3117,10 @@
         <v>120</v>
       </c>
       <c r="F14" s="50" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="G14" s="51" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="H14" s="38"/>
     </row>
@@ -2978,7 +3129,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>10</v>
@@ -2990,10 +3141,10 @@
         <v>60</v>
       </c>
       <c r="F15" s="46" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="G15" s="49" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="H15" s="15"/>
     </row>
@@ -3002,7 +3153,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>10</v>
@@ -3014,10 +3165,10 @@
         <v>60</v>
       </c>
       <c r="F16" s="48" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="G16" s="49" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="H16" s="15"/>
     </row>
@@ -3026,10 +3177,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>1</v>
@@ -3038,10 +3189,10 @@
         <v>60</v>
       </c>
       <c r="F17" s="48" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="G17" s="49" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="H17" s="15"/>
     </row>
@@ -3050,7 +3201,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>152</v>
+        <v>105</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>10</v>
@@ -3062,10 +3213,10 @@
         <v>60</v>
       </c>
       <c r="F18" s="48" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="G18" s="49" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="H18" s="15"/>
     </row>
@@ -3094,7 +3245,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3129,7 +3280,7 @@
     </row>
     <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F6" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -3150,16 +3301,16 @@
         <v>7</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -3168,7 +3319,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>10</v>
@@ -3181,10 +3332,10 @@
         <v>60</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="H9" s="15"/>
     </row>
@@ -3194,7 +3345,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="70" t="s">
-        <v>173</v>
+        <v>126</v>
       </c>
       <c r="C10" s="62" t="s">
         <v>10</v>
@@ -3202,15 +3353,15 @@
       <c r="D10" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="63">
+      <c r="E10" s="68">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="F10" s="67" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="G10" s="65" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="H10" s="15"/>
     </row>
@@ -3220,7 +3371,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>10</v>
@@ -3233,10 +3384,10 @@
         <v>60</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="H11" s="15"/>
     </row>
@@ -3246,7 +3397,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>10</v>
@@ -3259,10 +3410,10 @@
         <v>60</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="H12" s="15"/>
     </row>
@@ -3272,10 +3423,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>2</v>
@@ -3285,10 +3436,10 @@
         <v>120</v>
       </c>
       <c r="F13" s="60" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="H13" s="32"/>
     </row>
@@ -3298,10 +3449,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>172</v>
+        <v>125</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>1</v>
@@ -3311,10 +3462,10 @@
         <v>60</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="H14" s="6"/>
     </row>
@@ -3322,24 +3473,24 @@
       <c r="A15" s="12">
         <v>7</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>134</v>
+      <c r="B15" s="62" t="s">
+        <v>107</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" s="7">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="H15" s="56"/>
     </row>
@@ -3348,10 +3499,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="62" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="C16" s="62" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D16" s="59" t="s">
         <v>1</v>
@@ -3361,10 +3512,10 @@
         <v>60</v>
       </c>
       <c r="F16" s="60" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="G16" s="65" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="H16" s="9"/>
     </row>
@@ -3373,10 +3524,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>1</v>
@@ -3386,10 +3537,10 @@
         <v>60</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="H17" s="56"/>
     </row>
@@ -3399,10 +3550,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>1</v>
@@ -3412,10 +3563,10 @@
         <v>60</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="H18" s="56"/>
     </row>
@@ -3444,7 +3595,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3479,7 +3630,7 @@
     </row>
     <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F6" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -3500,16 +3651,16 @@
         <v>7</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -3518,10 +3669,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>1</v>
@@ -3531,10 +3682,10 @@
         <v>60</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="H9" s="9"/>
     </row>
@@ -3544,7 +3695,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="62" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="C10" s="62" t="s">
         <v>10</v>
@@ -3556,10 +3707,10 @@
         <v>60</v>
       </c>
       <c r="F10" s="67" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="G10" s="65" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="H10" s="9"/>
     </row>
@@ -3569,7 +3720,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>10</v>
@@ -3582,10 +3733,10 @@
         <v>60</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="H11" s="9"/>
     </row>
@@ -3595,7 +3746,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>10</v>
@@ -3608,10 +3759,10 @@
         <v>60</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="H12" s="9"/>
     </row>
@@ -3621,10 +3772,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="57" t="s">
-        <v>163</v>
+        <v>116</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D13" s="59" t="s">
         <v>1</v>
@@ -3634,10 +3785,10 @@
         <v>60</v>
       </c>
       <c r="F13" s="64" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="G13" s="65" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="H13" s="9"/>
     </row>
@@ -3647,10 +3798,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>169</v>
+        <v>122</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>1</v>
@@ -3660,10 +3811,10 @@
         <v>60</v>
       </c>
       <c r="F14" s="35" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="H14" s="9"/>
     </row>
@@ -3671,11 +3822,11 @@
       <c r="A15" s="58">
         <v>7</v>
       </c>
-      <c r="B15" s="62" t="s">
-        <v>154</v>
+      <c r="B15" s="9" t="s">
+        <v>114</v>
       </c>
       <c r="C15" s="59" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D15" s="59" t="s">
         <v>1</v>
@@ -3685,10 +3836,10 @@
         <v>60</v>
       </c>
       <c r="F15" s="64" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="G15" s="65" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="H15" s="9"/>
     </row>
@@ -3696,11 +3847,11 @@
       <c r="A16" s="12">
         <v>8</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>161</v>
+      <c r="B16" s="62" t="s">
+        <v>115</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>1</v>
@@ -3710,10 +3861,10 @@
         <v>60</v>
       </c>
       <c r="F16" s="35" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="H16" s="9"/>
     </row>
@@ -3722,7 +3873,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>157</v>
+        <v>110</v>
       </c>
       <c r="C17" s="62" t="s">
         <v>10</v>
@@ -3735,10 +3886,10 @@
         <v>60</v>
       </c>
       <c r="F17" s="64" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="G17" s="65" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="H17" s="6"/>
     </row>
@@ -3748,10 +3899,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>2</v>
@@ -3761,10 +3912,10 @@
         <v>120</v>
       </c>
       <c r="F18" s="36" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="H18" s="9"/>
     </row>
@@ -3791,9 +3942,9 @@
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3828,7 +3979,7 @@
     </row>
     <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F6" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -3849,16 +4000,16 @@
         <v>7</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -3867,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="61" t="s">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="C9" s="62" t="s">
         <v>10</v>
@@ -3880,10 +4031,10 @@
         <v>60</v>
       </c>
       <c r="F9" s="64" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="G9" s="65" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="H9" s="6"/>
     </row>
@@ -3893,10 +4044,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>1</v>
@@ -3906,10 +4057,10 @@
         <v>60</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="H10" s="9"/>
     </row>
@@ -3919,7 +4070,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="59" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="C11" s="59" t="s">
         <v>10</v>
@@ -3932,10 +4083,10 @@
         <v>60</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="H11" s="9"/>
     </row>
@@ -3945,10 +4096,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="C12" s="62" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" s="59" t="s">
         <v>2</v>
@@ -3958,10 +4109,10 @@
         <v>120</v>
       </c>
       <c r="F12" s="69" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="G12" s="65" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="H12" s="6"/>
     </row>
@@ -3971,10 +4122,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="59" t="s">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="C13" s="62" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="D13" s="59" t="s">
         <v>2</v>
@@ -3984,10 +4135,10 @@
         <v>120</v>
       </c>
       <c r="F13" s="35" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="H13" s="6"/>
     </row>
@@ -3997,7 +4148,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="59" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="C14" s="62" t="s">
         <v>10</v>
@@ -4010,10 +4161,10 @@
         <v>60</v>
       </c>
       <c r="F14" s="64" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="G14" s="65" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="H14" s="9"/>
     </row>
@@ -4022,10 +4173,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="59" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="C15" s="62" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="D15" s="59" t="s">
         <v>2</v>
@@ -4035,10 +4186,10 @@
         <v>120</v>
       </c>
       <c r="F15" s="64" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="G15" s="65" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="H15" s="9"/>
     </row>
@@ -4047,10 +4198,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="62" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="C16" s="62" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D16" s="59" t="s">
         <v>1</v>
@@ -4059,10 +4210,10 @@
         <v>60</v>
       </c>
       <c r="F16" s="64" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="G16" s="65" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="H16" s="9"/>
     </row>
@@ -4071,10 +4222,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="62" t="s">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="C17" s="62" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="D17" s="59" t="s">
         <v>2</v>
@@ -4083,10 +4234,10 @@
         <v>120</v>
       </c>
       <c r="F17" s="66" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="G17" s="65" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="H17" s="9"/>
     </row>
@@ -4095,10 +4246,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>166</v>
+        <v>119</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>1</v>
@@ -4108,10 +4259,10 @@
         <v>60</v>
       </c>
       <c r="F18" s="36" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="H18" s="9"/>
     </row>
@@ -4120,10 +4271,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>2</v>
@@ -4133,10 +4284,10 @@
         <v>120</v>
       </c>
       <c r="F19" s="35" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="H19" s="9"/>
     </row>
@@ -4145,10 +4296,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="62" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="C20" s="62" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="D20" s="59" t="s">
         <v>3</v>
@@ -4158,10 +4309,10 @@
         <v>240</v>
       </c>
       <c r="F20" s="69" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="G20" s="65" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="H20" s="6"/>
     </row>
@@ -4170,10 +4321,10 @@
         <v>13</v>
       </c>
       <c r="B21" s="62" t="s">
-        <v>168</v>
+        <v>121</v>
       </c>
       <c r="C21" s="62" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="D21" s="59" t="s">
         <v>1</v>
@@ -4183,10 +4334,10 @@
         <v>60</v>
       </c>
       <c r="F21" s="64" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="G21" s="65" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="H21" s="9"/>
     </row>
@@ -4195,7 +4346,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="59" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="C22" s="62" t="s">
         <v>10</v>
@@ -4208,10 +4359,10 @@
         <v>120</v>
       </c>
       <c r="F22" s="64" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="G22" s="65" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="H22" s="9"/>
     </row>
@@ -4220,10 +4371,10 @@
         <v>15</v>
       </c>
       <c r="B23" s="62" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="C23" s="62" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="D23" s="59" t="s">
         <v>2</v>
@@ -4233,10 +4384,10 @@
         <v>120</v>
       </c>
       <c r="F23" s="66" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="G23" s="65" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="H23" s="9"/>
     </row>
